--- a/ComputersFactory/Excel-Reports/Reports.xlsx
+++ b/ComputersFactory/Excel-Reports/Reports.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" r:id="rId1" name="Sheet1"/>
+    <sheet sheetId="2" r:id="rId2" name="Sheet2"/>
+    <sheet sheetId="3" r:id="rId3" name="Sheet3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -377,16 +377,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row spans="1:9" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,6 +410,3499 @@
       </c>
       <c r="I1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>i3 3300</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>ux250</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Alienware</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Alienware</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Alienware</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I61" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I62" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I63" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I64" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I65" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I66" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Alienware</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Toshiba</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Alienware</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>2gb</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>i3</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>gtx1080</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>4gb</t>
+        </is>
       </c>
     </row>
   </sheetData>
